--- a/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43875C7E-C573-4AAF-8FDA-D94A5C1A0222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46063E-9DF1-4180-A296-8A3C98E5ED01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="1395" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thing" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Thing!$A$2:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Thing!$A$2:$U$2174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15816" uniqueCount="7306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15892" uniqueCount="7348">
   <si>
     <t>id</t>
   </si>
@@ -21954,6 +21954,132 @@
   </si>
   <si>
     <t>Sopa Problemática</t>
+  </si>
+  <si>
+    <t>arch_deco</t>
+  </si>
+  <si>
+    <t>EA 23.110</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>アーチ</t>
+  </si>
+  <si>
+    <t>torii_mini</t>
+  </si>
+  <si>
+    <t>small torii</t>
+  </si>
+  <si>
+    <t>小さな鳥居</t>
+  </si>
+  <si>
+    <t>board_cork</t>
+  </si>
+  <si>
+    <t>cork board</t>
+  </si>
+  <si>
+    <t>コルクボード</t>
+  </si>
+  <si>
+    <t>hot_cocoa</t>
+  </si>
+  <si>
+    <t>hot cocoa</t>
+  </si>
+  <si>
+    <t>ホットココア</t>
+  </si>
+  <si>
+    <t>1247</t>
+  </si>
+  <si>
+    <t>decorative goddess</t>
+  </si>
+  <si>
+    <t>飾りの女神</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t>EA 23.111</t>
+  </si>
+  <si>
+    <t>リコーダー</t>
+  </si>
+  <si>
+    <t>flute</t>
+  </si>
+  <si>
+    <t>フルート</t>
+  </si>
+  <si>
+    <t>terra_globe</t>
+  </si>
+  <si>
+    <t>EA 23.113</t>
+  </si>
+  <si>
+    <t>pearl_oyster</t>
+  </si>
+  <si>
+    <t>EA 23.114</t>
+  </si>
+  <si>
+    <t>pearl oyster</t>
+  </si>
+  <si>
+    <t>真珠貝</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>EA 23.119</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>Pequeno Torii</t>
+  </si>
+  <si>
+    <t>Quadro de Cortiça</t>
+  </si>
+  <si>
+    <t>Chocolate Quente</t>
+  </si>
+  <si>
+    <t>Deusa Decorativa</t>
+  </si>
+  <si>
+    <t>Flauta Doce</t>
+  </si>
+  <si>
+    <t>Flauta</t>
+  </si>
+  <si>
+    <t>Ostra Perlífera</t>
+  </si>
+  <si>
+    <t>Edifício</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Xícara</t>
+  </si>
+  <si>
+    <t>Haste</t>
+  </si>
+  <si>
+    <t>Tesouro Acumulado</t>
   </si>
 </sst>
 </file>
@@ -22331,11 +22457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2164"/>
+  <dimension ref="A1:U2174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="2" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D880" sqref="D880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41220,25 +41346,28 @@
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>2542</v>
+        <v>2766</v>
       </c>
       <c r="B753" t="s">
-        <v>22</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1774</v>
+        <v>5513</v>
       </c>
       <c r="D753" t="s">
-        <v>6594</v>
+        <v>6671</v>
       </c>
       <c r="E753" t="s">
-        <v>2543</v>
+        <v>2761</v>
       </c>
       <c r="F753" t="s">
-        <v>2544</v>
+        <v>2762</v>
+      </c>
+      <c r="J753" t="s">
+        <v>2767</v>
+      </c>
+      <c r="K753" t="s">
+        <v>2767</v>
       </c>
       <c r="L753" t="s">
-        <v>374</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.25">
@@ -43577,25 +43706,25 @@
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>2766</v>
+        <v>2790</v>
       </c>
       <c r="B850" t="s">
         <v>5513</v>
       </c>
       <c r="D850" t="s">
-        <v>6671</v>
+        <v>6676</v>
       </c>
       <c r="E850" t="s">
-        <v>2761</v>
+        <v>2790</v>
       </c>
       <c r="F850" t="s">
-        <v>2762</v>
+        <v>2791</v>
       </c>
       <c r="J850" t="s">
-        <v>2767</v>
+        <v>2776</v>
       </c>
       <c r="K850" t="s">
-        <v>2767</v>
+        <v>2776</v>
       </c>
       <c r="L850" t="s">
         <v>1185</v>
@@ -43889,25 +44018,25 @@
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="B862" t="s">
         <v>5513</v>
       </c>
       <c r="D862" t="s">
-        <v>6676</v>
+        <v>6668</v>
       </c>
       <c r="E862" t="s">
-        <v>2790</v>
+        <v>2749</v>
       </c>
       <c r="F862" t="s">
-        <v>2791</v>
+        <v>2750</v>
       </c>
       <c r="J862" t="s">
-        <v>2776</v>
+        <v>2594</v>
       </c>
       <c r="K862" t="s">
-        <v>2776</v>
+        <v>2594</v>
       </c>
       <c r="L862" t="s">
         <v>1185</v>
@@ -43915,25 +44044,25 @@
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2792</v>
+        <v>2799</v>
       </c>
       <c r="B863" t="s">
         <v>5513</v>
       </c>
       <c r="D863" t="s">
-        <v>6668</v>
+        <v>6678</v>
       </c>
       <c r="E863" t="s">
-        <v>2749</v>
+        <v>2800</v>
       </c>
       <c r="F863" t="s">
-        <v>2750</v>
+        <v>2801</v>
       </c>
       <c r="J863" t="s">
-        <v>2594</v>
+        <v>2802</v>
       </c>
       <c r="K863" t="s">
-        <v>2594</v>
+        <v>2802</v>
       </c>
       <c r="L863" t="s">
         <v>1185</v>
@@ -44045,28 +44174,25 @@
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>2799</v>
+        <v>3336</v>
       </c>
       <c r="B868" t="s">
         <v>5513</v>
       </c>
+      <c r="C868" t="s">
+        <v>166</v>
+      </c>
       <c r="D868" t="s">
-        <v>6678</v>
+        <v>6800</v>
       </c>
       <c r="E868" t="s">
-        <v>2800</v>
+        <v>3337</v>
       </c>
       <c r="F868" t="s">
-        <v>2801</v>
-      </c>
-      <c r="J868" t="s">
-        <v>2802</v>
-      </c>
-      <c r="K868" t="s">
-        <v>2802</v>
+        <v>3338</v>
       </c>
       <c r="L868" t="s">
-        <v>1185</v>
+        <v>374</v>
       </c>
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.25">
@@ -50088,25 +50214,22 @@
     </row>
     <row r="1134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>3336</v>
+        <v>3618</v>
       </c>
       <c r="B1134" t="s">
         <v>5513</v>
       </c>
-      <c r="C1134" t="s">
-        <v>166</v>
-      </c>
       <c r="D1134" t="s">
-        <v>6800</v>
+        <v>6855</v>
       </c>
       <c r="E1134" t="s">
-        <v>3337</v>
+        <v>3619</v>
       </c>
       <c r="F1134" t="s">
-        <v>3338</v>
+        <v>3620</v>
       </c>
       <c r="L1134" t="s">
-        <v>374</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1135" spans="1:12" x14ac:dyDescent="0.25">
@@ -54271,22 +54394,31 @@
     </row>
     <row r="1316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>3618</v>
+        <v>4041</v>
       </c>
       <c r="B1316" t="s">
         <v>5513</v>
       </c>
       <c r="D1316" t="s">
-        <v>6855</v>
+        <v>6912</v>
       </c>
       <c r="E1316" t="s">
-        <v>3619</v>
+        <v>4042</v>
       </c>
       <c r="F1316" t="s">
-        <v>3620</v>
+        <v>4043</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>5689</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>434</v>
       </c>
       <c r="L1316" t="s">
-        <v>1207</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1317" spans="1:12" x14ac:dyDescent="0.25">
@@ -60377,19 +60509,19 @@
     </row>
     <row r="1576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="B1576" t="s">
         <v>5513</v>
       </c>
       <c r="D1576" t="s">
-        <v>6912</v>
+        <v>6913</v>
       </c>
       <c r="E1576" t="s">
-        <v>4042</v>
+        <v>4045</v>
       </c>
       <c r="F1576" t="s">
-        <v>4043</v>
+        <v>4046</v>
       </c>
       <c r="G1576" t="s">
         <v>5689</v>
@@ -60406,28 +60538,19 @@
     </row>
     <row r="1577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>4044</v>
+        <v>4387</v>
       </c>
       <c r="B1577" t="s">
         <v>5513</v>
       </c>
       <c r="D1577" t="s">
-        <v>6913</v>
+        <v>6995</v>
       </c>
       <c r="E1577" t="s">
-        <v>4045</v>
+        <v>4388</v>
       </c>
       <c r="F1577" t="s">
-        <v>4046</v>
-      </c>
-      <c r="G1577" t="s">
-        <v>5689</v>
-      </c>
-      <c r="H1577" t="s">
-        <v>433</v>
-      </c>
-      <c r="I1577" t="s">
-        <v>434</v>
+        <v>4389</v>
       </c>
       <c r="L1577" t="s">
         <v>374</v>
@@ -64031,19 +64154,19 @@
     </row>
     <row r="1756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>4387</v>
+        <v>4390</v>
       </c>
       <c r="B1756" t="s">
         <v>5513</v>
       </c>
       <c r="D1756" t="s">
-        <v>6995</v>
+        <v>6996</v>
       </c>
       <c r="E1756" t="s">
-        <v>4388</v>
+        <v>4391</v>
       </c>
       <c r="F1756" t="s">
-        <v>4389</v>
+        <v>4392</v>
       </c>
       <c r="L1756" t="s">
         <v>374</v>
@@ -64051,19 +64174,19 @@
     </row>
     <row r="1757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>4390</v>
+        <v>4393</v>
       </c>
       <c r="B1757" t="s">
         <v>5513</v>
       </c>
       <c r="D1757" t="s">
-        <v>6996</v>
+        <v>6976</v>
       </c>
       <c r="E1757" t="s">
-        <v>4391</v>
+        <v>4309</v>
       </c>
       <c r="F1757" t="s">
-        <v>4392</v>
+        <v>4310</v>
       </c>
       <c r="L1757" t="s">
         <v>374</v>
@@ -64071,19 +64194,25 @@
     </row>
     <row r="1758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
-        <v>4393</v>
+        <v>5090</v>
       </c>
       <c r="B1758" t="s">
         <v>5513</v>
       </c>
       <c r="D1758" t="s">
-        <v>6976</v>
+        <v>7219</v>
       </c>
       <c r="E1758" t="s">
-        <v>4309</v>
+        <v>5091</v>
       </c>
       <c r="F1758" t="s">
-        <v>4310</v>
+        <v>5092</v>
+      </c>
+      <c r="J1758" t="s">
+        <v>2388</v>
+      </c>
+      <c r="K1758" t="s">
+        <v>2388</v>
       </c>
       <c r="L1758" t="s">
         <v>374</v>
@@ -68665,25 +68794,25 @@
     </row>
     <row r="1964" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1964" t="s">
-        <v>4794</v>
+        <v>2542</v>
       </c>
       <c r="B1964" t="s">
         <v>22</v>
       </c>
       <c r="C1964" t="s">
-        <v>166</v>
+        <v>1774</v>
       </c>
       <c r="D1964" t="s">
-        <v>7088</v>
+        <v>6594</v>
       </c>
       <c r="E1964" t="s">
-        <v>4795</v>
+        <v>2543</v>
       </c>
       <c r="F1964" t="s">
-        <v>4796</v>
+        <v>2544</v>
       </c>
       <c r="L1964" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1965" spans="1:12" x14ac:dyDescent="0.25">
@@ -71437,28 +71566,25 @@
     </row>
     <row r="2075" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2075" t="s">
-        <v>5090</v>
+        <v>4794</v>
       </c>
       <c r="B2075" t="s">
-        <v>5513</v>
+        <v>22</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>166</v>
       </c>
       <c r="D2075" t="s">
-        <v>7219</v>
+        <v>7088</v>
       </c>
       <c r="E2075" t="s">
-        <v>5091</v>
+        <v>4795</v>
       </c>
       <c r="F2075" t="s">
-        <v>5092</v>
-      </c>
-      <c r="J2075" t="s">
-        <v>2388</v>
-      </c>
-      <c r="K2075" t="s">
-        <v>2388</v>
+        <v>4796</v>
       </c>
       <c r="L2075" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2076" spans="1:21" x14ac:dyDescent="0.25">
@@ -74132,8 +74258,260 @@
         <v>1356</v>
       </c>
     </row>
+    <row r="2165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>7306</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>7335</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>7308</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>7309</v>
+      </c>
+      <c r="J2165" t="s">
+        <v>7343</v>
+      </c>
+      <c r="L2165" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>7310</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>7336</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>7311</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>7312</v>
+      </c>
+      <c r="J2166" t="s">
+        <v>7343</v>
+      </c>
+      <c r="L2166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>7313</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>7337</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>7314</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>7315</v>
+      </c>
+      <c r="J2167" t="s">
+        <v>7344</v>
+      </c>
+      <c r="L2167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>7316</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>7338</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>7317</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>7318</v>
+      </c>
+      <c r="J2168" t="s">
+        <v>7345</v>
+      </c>
+      <c r="K2168" t="s">
+        <v>2776</v>
+      </c>
+      <c r="L2168" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>7319</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>7339</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>7320</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>7321</v>
+      </c>
+      <c r="J2169" t="s">
+        <v>7344</v>
+      </c>
+      <c r="L2169" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>7322</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>7323</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>7340</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>7322</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>7324</v>
+      </c>
+      <c r="J2170" t="s">
+        <v>5614</v>
+      </c>
+      <c r="L2170" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>7325</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>7323</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>7341</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>7325</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>7326</v>
+      </c>
+      <c r="J2171" t="s">
+        <v>7346</v>
+      </c>
+      <c r="L2171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>7327</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>7328</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>6917</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>4069</v>
+      </c>
+      <c r="J2172" t="s">
+        <v>7344</v>
+      </c>
+      <c r="L2172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>7329</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>7330</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>7342</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>7331</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>7332</v>
+      </c>
+      <c r="J2173" t="s">
+        <v>7344</v>
+      </c>
+      <c r="L2173" t="s">
+        <v>374</v>
+      </c>
+      <c r="P2173" t="s">
+        <v>7347</v>
+      </c>
+      <c r="Q2173" t="s">
+        <v>968</v>
+      </c>
+      <c r="R2173" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>7333</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>7334</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>6750</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>3131</v>
+      </c>
+      <c r="J2174" t="s">
+        <v>7346</v>
+      </c>
+      <c r="L2174" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:U2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:U2174" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:U2075">
+      <sortCondition ref="B2:B2164"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125A2A2-E52B-4267-B57C-ACD159E3B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC9391B-F035-4A79-8620-D8A54E034990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21790,9 +21790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I205" sqref="A205:XFD205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E509" sqref="E509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Thing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0B792-E6BB-47E5-80C8-70279D0C48B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F4745F-3DC5-420E-B100-9C9808851D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1350" windowWidth="11025" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thing" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15889" uniqueCount="7124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15890" uniqueCount="7125">
   <si>
     <t>id</t>
   </si>
@@ -21408,6 +21408,9 @@
   </si>
   <si>
     <t>Pote de</t>
+  </si>
+  <si>
+    <t>Uma rara moeda de alto valor.</t>
   </si>
 </sst>
 </file>
@@ -21790,9 +21793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U2174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1595" sqref="G1595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61304,6 +61307,9 @@
       <c r="F1595" t="s">
         <v>932</v>
       </c>
+      <c r="G1595" t="s">
+        <v>7124</v>
+      </c>
       <c r="I1595" t="s">
         <v>933</v>
       </c>
